--- a/temp.xlsx
+++ b/temp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="HARVEY MUDD COLLEGE" sheetId="3" r:id="rId3"/>
     <sheet name="HOPE COLLEGE" sheetId="4" r:id="rId4"/>
     <sheet name="Howard University" sheetId="5" r:id="rId5"/>
+    <sheet name="Indiana University-Purdue Unive" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="548">
   <si>
     <t>University</t>
   </si>
@@ -1132,6 +1133,844 @@
   <si>
     <t xml:space="preserve">Special Topics: Robotics Programming              
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Computers and Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 12000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Windows on Computer Science
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 199 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introductory Computing Topics (topic varies)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming Concepts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 207 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Analysis Using Spreadsheets
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Databases
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 23000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computing I
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 24000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computing II
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 241 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Web Development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 26500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 299 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Survey of Computing Applications (topic varies)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Computing Fundamentals
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 30000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Systems Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 301 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamental Computer Science Concepts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 305 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C Language Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 307 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Programming using Java
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Database Programming, Oracle
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 317 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computation for Scientific Applications
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 321 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System and Network Administration
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 331 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visual Basic Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 335 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Programming, Visual Basic
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 34000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrete Computational Structures
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 34050 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honors Discrete Computational Structures
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 341 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Client-Side Web Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 342 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Server-Side Programming for the Web
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 343 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Object-Oriented Programming for the Web
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 345 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Programming, Java
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Multimedia Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 355 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Virtual Reality
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 35500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Programming Languages
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 361 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Software Project Management
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 36200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Structures
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 36250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honors Data Structures and Algorithms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 36300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Software Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 399 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topics in Computing (topic varies)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 40200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Architecture of Computers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 40300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Operating Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 410 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Computing Application Development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 41400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical Methods
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 420 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Computing Cross Platform Development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 430 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Computing &amp; Interactive Applications
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 431 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> E-Commerce with ASP.NET
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 43200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Security in Computers
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 43300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to the Internet of Things
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 435 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Management Best Practices with ADO.NET
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 43500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multimedia Information Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 43600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Computer Networking
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 43700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Computer Graphics
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 43800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Game Development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 44100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Client-Server Database Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XML Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 44300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 44600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Microprocessor Architecture
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 44800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biometric Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 450 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Computing with Web Services
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 45000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Software Engineering
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Game Development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 45200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Object-Oriented Analysis and Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 461 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineering for Applied Computer Science
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 46300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analysis of Algorithms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 47000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Automata and Formal Languages
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 47500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientific Computing I
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 47600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Scientific Computing II
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 47700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> High Performance Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 48100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Mining
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 48400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theory of Computation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capstone Project in Applied Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 48500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expert System Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 48700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 48900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Science
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 49000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topics in Computer Sciences for Undergraduates
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 49500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explorations in Applied Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 49600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Science Internship Capstone
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-N 499 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topics in Applied Computing (topic varies)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 50200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compiling and Programming Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 50300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 50400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Concepts in Computer Organization
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 50600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Management of the Software Development Process
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 50700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Object-Oriented Design and Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 50900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Quality Assurance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 51200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical Methods for Engineers and Scientists
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 51400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical Analysis
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 51500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical Analysis of Linear Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 51600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computational Methods in Applied Mathematics
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 52000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computational Methods in Analysis
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 52500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Parallel Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 52600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Information Security
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 53200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud Computing Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 53300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wireless Sensor Networks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 53600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Communication and Computer Networks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 53700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Distributed Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 53800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Design of Interactive Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 53900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computing with Distributed Objects
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 54100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 54300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Simulation and Modeling of Computer Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 54700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Information Storage and Retrieval and Natural Language Processing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 54800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Bioinformatics
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 54900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intelligent Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Visualization
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cryptography
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fault-Tolerant Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Processing and Computer Vision
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multimedia
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 55900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 56500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 57300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 57500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Systems Security
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 57800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Statistical Machine Learning
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 57900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioinformatics Algorithms
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 58000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Algorithm Design, Analysis, and Implementation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 58200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 59000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topics in Computer Science
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI-C 591 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research Seminar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 60300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Topics in Distributed Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 61400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical Solution of Ordinary Differential Equations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 61500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numerical Solution of Partial Differential Equations
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 62600 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Information Assurance
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 66000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design of Translating Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 66100 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Formal Compiling Methods
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 69500 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> M.S. Project
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 69800 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research M.S. Thesis
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSCI 69900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research Ph.D. Thesis
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana university purdue university </t>
+  </si>
+  <si>
+    <t>https://science.iupui.edu/cs/academics/course-descriptions.html?page=7</t>
   </si>
 </sst>
 </file>
@@ -1516,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1566,6 +2405,14 @@
       </c>
       <c r="B5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B6" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -2337,7 +3184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2594,8 +3441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3007,4 +3854,1023 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>322</v>
+      </c>
+      <c r="B10" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>330</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B16" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>340</v>
+      </c>
+      <c r="B19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>346</v>
+      </c>
+      <c r="B22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>352</v>
+      </c>
+      <c r="B25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>354</v>
+      </c>
+      <c r="B26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>362</v>
+      </c>
+      <c r="B30" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>368</v>
+      </c>
+      <c r="B33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>370</v>
+      </c>
+      <c r="B34" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+      <c r="B35" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>380</v>
+      </c>
+      <c r="B39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>382</v>
+      </c>
+      <c r="B40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>384</v>
+      </c>
+      <c r="B41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>386</v>
+      </c>
+      <c r="B42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B43" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>392</v>
+      </c>
+      <c r="B45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>394</v>
+      </c>
+      <c r="B46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>396</v>
+      </c>
+      <c r="B47" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>398</v>
+      </c>
+      <c r="B48" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B49" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>402</v>
+      </c>
+      <c r="B50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>404</v>
+      </c>
+      <c r="B51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>406</v>
+      </c>
+      <c r="B52" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>408</v>
+      </c>
+      <c r="B53" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>413</v>
+      </c>
+      <c r="B56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>415</v>
+      </c>
+      <c r="B57" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>417</v>
+      </c>
+      <c r="B58" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>419</v>
+      </c>
+      <c r="B59" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>421</v>
+      </c>
+      <c r="B60" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>423</v>
+      </c>
+      <c r="B61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>425</v>
+      </c>
+      <c r="B62" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>427</v>
+      </c>
+      <c r="B63" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>429</v>
+      </c>
+      <c r="B64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>431</v>
+      </c>
+      <c r="B65" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>433</v>
+      </c>
+      <c r="B66" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>435</v>
+      </c>
+      <c r="B67" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>437</v>
+      </c>
+      <c r="B68" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>439</v>
+      </c>
+      <c r="B69" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>441</v>
+      </c>
+      <c r="B70" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>443</v>
+      </c>
+      <c r="B71" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>444</v>
+      </c>
+      <c r="B72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>446</v>
+      </c>
+      <c r="B73" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>448</v>
+      </c>
+      <c r="B74" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>450</v>
+      </c>
+      <c r="B75" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>452</v>
+      </c>
+      <c r="B76" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>454</v>
+      </c>
+      <c r="B77" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B78" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>458</v>
+      </c>
+      <c r="B79" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>460</v>
+      </c>
+      <c r="B80" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>462</v>
+      </c>
+      <c r="B81" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>464</v>
+      </c>
+      <c r="B82" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>466</v>
+      </c>
+      <c r="B83" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>468</v>
+      </c>
+      <c r="B84" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>470</v>
+      </c>
+      <c r="B85" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>472</v>
+      </c>
+      <c r="B86" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>474</v>
+      </c>
+      <c r="B87" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>476</v>
+      </c>
+      <c r="B88" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>478</v>
+      </c>
+      <c r="B89" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>480</v>
+      </c>
+      <c r="B90" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>482</v>
+      </c>
+      <c r="B91" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>484</v>
+      </c>
+      <c r="B92" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>486</v>
+      </c>
+      <c r="B93" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>488</v>
+      </c>
+      <c r="B94" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>490</v>
+      </c>
+      <c r="B95" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>492</v>
+      </c>
+      <c r="B96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>493</v>
+      </c>
+      <c r="B97" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>495</v>
+      </c>
+      <c r="B98" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>497</v>
+      </c>
+      <c r="B99" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>499</v>
+      </c>
+      <c r="B100" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>501</v>
+      </c>
+      <c r="B101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>502</v>
+      </c>
+      <c r="B102" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>504</v>
+      </c>
+      <c r="B103" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>506</v>
+      </c>
+      <c r="B104" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>508</v>
+      </c>
+      <c r="B105" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>510</v>
+      </c>
+      <c r="B106" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>512</v>
+      </c>
+      <c r="B107" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>513</v>
+      </c>
+      <c r="B108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>514</v>
+      </c>
+      <c r="B109" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>515</v>
+      </c>
+      <c r="B110" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>517</v>
+      </c>
+      <c r="B111" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>519</v>
+      </c>
+      <c r="B112" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>521</v>
+      </c>
+      <c r="B113" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>523</v>
+      </c>
+      <c r="B114" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>524</v>
+      </c>
+      <c r="B115" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>526</v>
+      </c>
+      <c r="B116" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>528</v>
+      </c>
+      <c r="B117" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>530</v>
+      </c>
+      <c r="B118" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>532</v>
+      </c>
+      <c r="B119" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>534</v>
+      </c>
+      <c r="B120" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>536</v>
+      </c>
+      <c r="B121" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>538</v>
+      </c>
+      <c r="B122" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>540</v>
+      </c>
+      <c r="B123" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>542</v>
+      </c>
+      <c r="B124" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>544</v>
+      </c>
+      <c r="B125" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/temp.xlsx
+++ b/temp.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="921" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,17 @@
     <sheet name="HOPE COLLEGE" sheetId="4" r:id="rId4"/>
     <sheet name="Howard University" sheetId="5" r:id="rId5"/>
     <sheet name="Indiana University-Purdue Unive" sheetId="6" r:id="rId6"/>
+    <sheet name="Johns Hopkins University" sheetId="7" r:id="rId7"/>
+    <sheet name="Lehigh University" sheetId="8" r:id="rId8"/>
+    <sheet name="Marquette University" sheetId="9" r:id="rId9"/>
+    <sheet name="Miami University" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="1341">
   <si>
     <t>University</t>
   </si>
@@ -56,6 +60,39 @@
     <t>https://cea.howard.edu/cs-course-descriptions</t>
   </si>
   <si>
+    <t xml:space="preserve">Indiana university purdue university </t>
+  </si>
+  <si>
+    <t>https://science.iupui.edu/cs/academics/course-descriptions.html?page=7</t>
+  </si>
+  <si>
+    <t>Johns Hopkins University</t>
+  </si>
+  <si>
+    <t>https://e-catalogue.jhu.edu/engineering/full-time-residential-programs/degree-programs/computer-science/#coursestext</t>
+  </si>
+  <si>
+    <t>Lehigh University</t>
+  </si>
+  <si>
+    <t>https://catalog.lehigh.edu/coursesprogramsandcurricula/engineeringandappliedscience/computerscienceandengineering/#courseinventory</t>
+  </si>
+  <si>
+    <t>Loyola University New Orleans</t>
+  </si>
+  <si>
+    <t>Marquette University</t>
+  </si>
+  <si>
+    <t>https://bulletin.marquette.edu/undergrad/helenwayklinglercollegeofartsandsciences/computerscience/#courseinventory</t>
+  </si>
+  <si>
+    <t>Miami University</t>
+  </si>
+  <si>
+    <t>https://www.miamioh.edu/cec/academics/departments/cse/academics/course-descriptions/index.html</t>
+  </si>
+  <si>
     <t>Course No</t>
   </si>
   <si>
@@ -1967,10 +2004,2413 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Indiana university purdue university </t>
-  </si>
-  <si>
-    <t>https://science.iupui.edu/cs/academics/course-descriptions.html?page=7</t>
+    <t>EN.601.104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Ethics</t>
+  </si>
+  <si>
+    <t>EN.601.105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  M &amp; Ms: Freshman Experience</t>
+  </si>
+  <si>
+    <t>EN.601.220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Intermediate Programming</t>
+  </si>
+  <si>
+    <t>EN.601.226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Data Structures</t>
+  </si>
+  <si>
+    <t>EN.601.229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer System Fundamentals</t>
+  </si>
+  <si>
+    <t>EN.601.231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Automata &amp; Computation Theory</t>
+  </si>
+  <si>
+    <t>EN.601.255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction to Video Game Design</t>
+  </si>
+  <si>
+    <t>EN.601.256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction to Video Game Design Lab</t>
+  </si>
+  <si>
+    <t>EN.601.270</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Open Source Software Engineering (Semesters of Code I)</t>
+  </si>
+  <si>
+    <t>EN.601.277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Disinformation Self-Defense</t>
+  </si>
+  <si>
+    <t>EN.601.280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Full-Stack JavaScript</t>
+  </si>
+  <si>
+    <t>EN.601.290</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  User Interfaces and Mobile Applications</t>
+  </si>
+  <si>
+    <t>EN.601.295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Developing Health IT Applications</t>
+  </si>
+  <si>
+    <t>EN.601.310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Software for Resilient Communities</t>
+  </si>
+  <si>
+    <t>EN.601.315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Databases</t>
+  </si>
+  <si>
+    <t>EN.601.318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Operating Systems</t>
+  </si>
+  <si>
+    <t>EN.601.320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Parallel Programming</t>
+  </si>
+  <si>
+    <t>EN.601.328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Compilers and Interpreters</t>
+  </si>
+  <si>
+    <t>EN.601.340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Web Security</t>
+  </si>
+  <si>
+    <t>EN.601.350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Genomic Data Science</t>
+  </si>
+  <si>
+    <t>EN.601.355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Video Game Design Project</t>
+  </si>
+  <si>
+    <t>EN.601.356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Seminar: Computer Integrated Surgery II</t>
+  </si>
+  <si>
+    <t>EN.601.365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Knowledge Discovery from Text</t>
+  </si>
+  <si>
+    <t>EN.601.402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Digital Health and Biomedical Informatics</t>
+  </si>
+  <si>
+    <t>EN.601.411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Science Innovation &amp; Entrepreneurship II</t>
+  </si>
+  <si>
+    <t>EN.601.414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Networks</t>
+  </si>
+  <si>
+    <t>EN.601.415</t>
+  </si>
+  <si>
+    <t>EN.601.417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Distributed Systems</t>
+  </si>
+  <si>
+    <t>EN.601.418</t>
+  </si>
+  <si>
+    <t>EN.601.419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cloud Computing</t>
+  </si>
+  <si>
+    <t>EN.601.420</t>
+  </si>
+  <si>
+    <t>EN.601.421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Object Oriented Software Engineering</t>
+  </si>
+  <si>
+    <t>EN.601.422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Software Testing &amp; Debugging</t>
+  </si>
+  <si>
+    <t>EN.601.424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reliable Software Systems</t>
+  </si>
+  <si>
+    <t>EN.601.426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Principles of Programming Languages</t>
+  </si>
+  <si>
+    <t>EN.601.427</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Principles of Programming Languages II</t>
+  </si>
+  <si>
+    <t>EN.601.428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Compilers &amp; Interpreters</t>
+  </si>
+  <si>
+    <t>EN.601.429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Functional Programming in Software Engineering</t>
+  </si>
+  <si>
+    <t>EN.601.430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Combinatorics &amp; Graph Theory in Computer Science</t>
+  </si>
+  <si>
+    <t>EN.601.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Intro Algorithms</t>
+  </si>
+  <si>
+    <t>EN.601.434</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Randomized and Big Data Algorithms</t>
+  </si>
+  <si>
+    <t>EN.601.435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Approximation Algorithms</t>
+  </si>
+  <si>
+    <t>EN.601.436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Algorithmic Game Theory</t>
+  </si>
+  <si>
+    <t>EN.601.437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Federated Learning and Analytics</t>
+  </si>
+  <si>
+    <t>EN.601.440</t>
+  </si>
+  <si>
+    <t>EN.601.441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Blockchains and Cryptocurrencies</t>
+  </si>
+  <si>
+    <t>EN.601.442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Modern Cryptography</t>
+  </si>
+  <si>
+    <t>EN.601.443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Security &amp; Privacy in Computing</t>
+  </si>
+  <si>
+    <t>EN.601.444</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Network Security</t>
+  </si>
+  <si>
+    <t>EN.601.445</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Practical Cryptographic Systems</t>
+  </si>
+  <si>
+    <t>EN.601.446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sketching and Indexing for Sequences</t>
+  </si>
+  <si>
+    <t>EN.601.447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computational Genomics: Sequences</t>
+  </si>
+  <si>
+    <t>EN.601.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computational Genomics: Data Analysis</t>
+  </si>
+  <si>
+    <t>EN.601.452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computational Biomedical Research</t>
+  </si>
+  <si>
+    <t>EN.601.454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Augmented Reality</t>
+  </si>
+  <si>
+    <t>EN.601.455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Integrated Surgery I</t>
+  </si>
+  <si>
+    <t>EN.601.456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Integrated Surgery II</t>
+  </si>
+  <si>
+    <t>EN.601.457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Graphics</t>
+  </si>
+  <si>
+    <t>EN.601.459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computational Geometry</t>
+  </si>
+  <si>
+    <t>EN.601.461</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Vision</t>
+  </si>
+  <si>
+    <t>EN.601.463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Algorithms for Sensor-Based Robotics</t>
+  </si>
+  <si>
+    <t>EN.601.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>EN.601.465</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Natural Language Processing</t>
+  </si>
+  <si>
+    <t>EN.601.466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Information Retrieval and Web Agents</t>
+  </si>
+  <si>
+    <t>EN.601.467</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction to Human Language Technology</t>
+  </si>
+  <si>
+    <t>EN.601.468</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Translation</t>
+  </si>
+  <si>
+    <t>EN.601.474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ML: Learning Theory</t>
+  </si>
+  <si>
+    <t>EN.601.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning</t>
+  </si>
+  <si>
+    <t>EN.601.476</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning: Data to Models</t>
+  </si>
+  <si>
+    <t>EN.601.477</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Causal Inference</t>
+  </si>
+  <si>
+    <t>EN.601.481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning: Optimization</t>
+  </si>
+  <si>
+    <t>EN.601.482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning: Deep Learning</t>
+  </si>
+  <si>
+    <t>EN.601.485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Probabilistic Models of the Visual Cortex</t>
+  </si>
+  <si>
+    <t>EN.601.486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning: Artificial Intelligence System Design &amp; Development</t>
+  </si>
+  <si>
+    <t>EN.601.490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction to Human-Computer Interaction</t>
+  </si>
+  <si>
+    <t>EN.601.491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Human-Robot Interaction</t>
+  </si>
+  <si>
+    <t>EN.601.496</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Integrated Surgery II - Teams</t>
+  </si>
+  <si>
+    <t>EN.601.501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Science Workshop</t>
+  </si>
+  <si>
+    <t>EN.601.503</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Independent Study</t>
+  </si>
+  <si>
+    <t>EN.601.507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Undergraduate Research</t>
+  </si>
+  <si>
+    <t>EN.601.509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Science Internship</t>
+  </si>
+  <si>
+    <t>EN.601.517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Group Undergraduate Research</t>
+  </si>
+  <si>
+    <t>EN.601.519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Senior Honors Thesis</t>
+  </si>
+  <si>
+    <t>EN.601.520</t>
+  </si>
+  <si>
+    <t>EN.601.556</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Senior Thesis In CIS</t>
+  </si>
+  <si>
+    <t>EN.601.611</t>
+  </si>
+  <si>
+    <t>EN.601.614</t>
+  </si>
+  <si>
+    <t>EN.601.615</t>
+  </si>
+  <si>
+    <t>EN.601.617</t>
+  </si>
+  <si>
+    <t>EN.601.618</t>
+  </si>
+  <si>
+    <t>EN.601.619</t>
+  </si>
+  <si>
+    <t>EN.601.620</t>
+  </si>
+  <si>
+    <t>EN.601.621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Obj Orient Software Eng</t>
+  </si>
+  <si>
+    <t>EN.601.622</t>
+  </si>
+  <si>
+    <t>EN.601.624</t>
+  </si>
+  <si>
+    <t>EN.601.626</t>
+  </si>
+  <si>
+    <t>EN.601.627</t>
+  </si>
+  <si>
+    <t>EN.601.628</t>
+  </si>
+  <si>
+    <t>EN.601.629</t>
+  </si>
+  <si>
+    <t>EN.601.630</t>
+  </si>
+  <si>
+    <t>EN.601.631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Theory of Computation</t>
+  </si>
+  <si>
+    <t>EN.601.633</t>
+  </si>
+  <si>
+    <t>EN.601.634</t>
+  </si>
+  <si>
+    <t>EN.601.635</t>
+  </si>
+  <si>
+    <t>EN.601.636</t>
+  </si>
+  <si>
+    <t>EN.601.637</t>
+  </si>
+  <si>
+    <t>EN.601.640</t>
+  </si>
+  <si>
+    <t>EN.601.641</t>
+  </si>
+  <si>
+    <t>EN.601.642</t>
+  </si>
+  <si>
+    <t>EN.601.643</t>
+  </si>
+  <si>
+    <t>EN.601.644</t>
+  </si>
+  <si>
+    <t>EN.601.645</t>
+  </si>
+  <si>
+    <t>EN.601.646</t>
+  </si>
+  <si>
+    <t>EN.601.647</t>
+  </si>
+  <si>
+    <t>EN.601.648</t>
+  </si>
+  <si>
+    <t>EN.601.654</t>
+  </si>
+  <si>
+    <t>EN.601.655</t>
+  </si>
+  <si>
+    <t>EN.601.656</t>
+  </si>
+  <si>
+    <t>EN.601.657</t>
+  </si>
+  <si>
+    <t>EN.601.659</t>
+  </si>
+  <si>
+    <t>EN.601.661</t>
+  </si>
+  <si>
+    <t>EN.601.663</t>
+  </si>
+  <si>
+    <t>EN.601.664</t>
+  </si>
+  <si>
+    <t>EN.601.665</t>
+  </si>
+  <si>
+    <t>EN.601.666</t>
+  </si>
+  <si>
+    <t>EN.601.667</t>
+  </si>
+  <si>
+    <t>EN.601.668</t>
+  </si>
+  <si>
+    <t>EN.601.674</t>
+  </si>
+  <si>
+    <t>EN.601.675</t>
+  </si>
+  <si>
+    <t>EN.601.676</t>
+  </si>
+  <si>
+    <t>EN.601.677</t>
+  </si>
+  <si>
+    <t>EN.601.681</t>
+  </si>
+  <si>
+    <t>EN.601.682</t>
+  </si>
+  <si>
+    <t>EN.601.685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Probabilistic Models in the Visual Cortex</t>
+  </si>
+  <si>
+    <t>EN.601.686</t>
+  </si>
+  <si>
+    <t>EN.601.690</t>
+  </si>
+  <si>
+    <t>EN.601.691</t>
+  </si>
+  <si>
+    <t>EN.601.714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Computer Networks</t>
+  </si>
+  <si>
+    <t>EN.601.717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Distributed Systems &amp; Networks</t>
+  </si>
+  <si>
+    <t>EN.601.718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Operating Systems</t>
+  </si>
+  <si>
+    <t>EN.601.723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Data-Intensive Computing</t>
+  </si>
+  <si>
+    <t>EN.601.730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Pseudorandomness and Combinatorial Constructions</t>
+  </si>
+  <si>
+    <t>EN.601.740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Language-based Security</t>
+  </si>
+  <si>
+    <t>EN.601.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Secure and Censorship-Resistant Communications</t>
+  </si>
+  <si>
+    <t>EN.601.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Cryptography</t>
+  </si>
+  <si>
+    <t>EN.601.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Computer Security</t>
+  </si>
+  <si>
+    <t>EN.601.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Applied Cryptography</t>
+  </si>
+  <si>
+    <t>EN.601.749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computational Genomics: Applied Comparative Genomics</t>
+  </si>
+  <si>
+    <t>EN.601.760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FFT in Graphics &amp; Vision</t>
+  </si>
+  <si>
+    <t>EN.601.765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning: Linguistic &amp; Sequence Modeling</t>
+  </si>
+  <si>
+    <t>EN.601.767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Deep Learning for Automated Discourse</t>
+  </si>
+  <si>
+    <t>EN.601.769</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Events Semantics in Theory and Practice</t>
+  </si>
+  <si>
+    <t>EN.601.775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Statistical Machine Learning</t>
+  </si>
+  <si>
+    <t>EN.601.778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Causal Inference</t>
+  </si>
+  <si>
+    <t>EN.601.779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning: Advanced Topics</t>
+  </si>
+  <si>
+    <t>EN.601.780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Unsupervised Learning: From Big Data to Low-Dimensional Representations</t>
+  </si>
+  <si>
+    <t>EN.601.783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Vision as Bayesian Inference</t>
+  </si>
+  <si>
+    <t>EN.601.801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Science Seminar</t>
+  </si>
+  <si>
+    <t>EN.601.803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Masters Research</t>
+  </si>
+  <si>
+    <t>EN.601.805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Graduate Independent Study</t>
+  </si>
+  <si>
+    <t>EN.601.807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Teaching Practicum</t>
+  </si>
+  <si>
+    <t>EN.601.808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in CS Education</t>
+  </si>
+  <si>
+    <t>EN.601.809</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PhD Research</t>
+  </si>
+  <si>
+    <t>EN.601.810</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Diversity and Inclusion in Computer Science and Engineering</t>
+  </si>
+  <si>
+    <t>EN.601.814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Computer Networks</t>
+  </si>
+  <si>
+    <t>EN.601.817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Systems Research</t>
+  </si>
+  <si>
+    <t>EN.601.819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Cloud Computing and Networked Systems</t>
+  </si>
+  <si>
+    <t>EN.601.826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Programming Languages</t>
+  </si>
+  <si>
+    <t>EN.601.831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CS Theory Seminar</t>
+  </si>
+  <si>
+    <t>EN.601.833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Seminar in Algorithms</t>
+  </si>
+  <si>
+    <t>EN.601.845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Applied Cryptography</t>
+  </si>
+  <si>
+    <t>EN.601.856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Seminar: Medical Image Analysis</t>
+  </si>
+  <si>
+    <t>EN.601.857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Computer Graphics</t>
+  </si>
+  <si>
+    <t>EN.601.865</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Natural Language Processing</t>
+  </si>
+  <si>
+    <t>EN.601.866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Computational Semantics</t>
+  </si>
+  <si>
+    <t>EN.601.868</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Machine Translation</t>
+  </si>
+  <si>
+    <t>EN.601.875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Selected Topics in Machine Learning</t>
+  </si>
+  <si>
+    <t>EN.625.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Calculus I</t>
+  </si>
+  <si>
+    <t>EN.625.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Calculus II</t>
+  </si>
+  <si>
+    <t>EN.625.687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Applied Topology</t>
+  </si>
+  <si>
+    <t>EN.705.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Applied Machine Learning</t>
+  </si>
+  <si>
+    <t>EN.705.603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Creating AI-Enabled Systems</t>
+  </si>
+  <si>
+    <t>EN.580.488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Foundations of Computational Biology and Bioinformatics</t>
+  </si>
+  <si>
+    <t>EN.580.688</t>
+  </si>
+  <si>
+    <t>EN.580.709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Sparse Representations in Computer Vision and Machine Learning</t>
+  </si>
+  <si>
+    <t>EN.580.743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Topics in Genomic Data Analysis</t>
+  </si>
+  <si>
+    <t>EN.580.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mathematics of Deep Learning</t>
+  </si>
+  <si>
+    <t>AS.050.375</t>
+  </si>
+  <si>
+    <t>AS.050.675</t>
+  </si>
+  <si>
+    <t>AS.050.814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Research Seminar in Computer Vision</t>
+  </si>
+  <si>
+    <t>EN.695.601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Foundations of Information Assurance</t>
+  </si>
+  <si>
+    <t>EN.695.611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Embedded Computer Systems-Vulnerabilities, Intrusions, and Protection Mechanisms</t>
+  </si>
+  <si>
+    <t>EN.695.612</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Operating Systems Security</t>
+  </si>
+  <si>
+    <t>EN.695.614</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Security Engineering</t>
+  </si>
+  <si>
+    <t>EN.695.615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cyber Physical Systems Security</t>
+  </si>
+  <si>
+    <t>EN.695.621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Public Key Infrastructure and Managing E-Security</t>
+  </si>
+  <si>
+    <t>EN.695.622</t>
+  </si>
+  <si>
+    <t>EN.695.641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cryptology</t>
+  </si>
+  <si>
+    <t>EN.695.642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Intrusion Detection</t>
+  </si>
+  <si>
+    <t>EN.695.643</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction to Ethical Hacking</t>
+  </si>
+  <si>
+    <t>EN.695.711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Java Security</t>
+  </si>
+  <si>
+    <t>EN.695.712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Authentication Technologies</t>
+  </si>
+  <si>
+    <t>EN.695.715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Assured Autonomy</t>
+  </si>
+  <si>
+    <t>EN.695.721</t>
+  </si>
+  <si>
+    <t>EN.695.722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Covert Channels</t>
+  </si>
+  <si>
+    <t>EN.695.741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Information Assurance Analysis</t>
+  </si>
+  <si>
+    <t>EN.695.742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Digital Forensics Technologies and Techniques</t>
+  </si>
+  <si>
+    <t>EN.695.744</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Reverse Engineering and Vulnerability Analysis</t>
+  </si>
+  <si>
+    <t>EN.695.749</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cyber Exercise</t>
+  </si>
+  <si>
+    <t>EN.695.791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Information Assurance Architectures and Technologies</t>
+  </si>
+  <si>
+    <t>EN.685.648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Data Science</t>
+  </si>
+  <si>
+    <t>EN.520.216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction To VLSI</t>
+  </si>
+  <si>
+    <t>EN.520.349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Microprocessor Lab I</t>
+  </si>
+  <si>
+    <t>EN.520.412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Machine Learning for Signal Processing</t>
+  </si>
+  <si>
+    <t>EN.520.424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  FPGA Synthesis Lab</t>
+  </si>
+  <si>
+    <t>EN.520.432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Medical Imaging Systems</t>
+  </si>
+  <si>
+    <t>EN.520.433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Medical Image Analysis</t>
+  </si>
+  <si>
+    <t>EN.520.447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Information Theory</t>
+  </si>
+  <si>
+    <t>EN.520.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Electronics Design Lab</t>
+  </si>
+  <si>
+    <t>EN.520.450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Micro-Processor Lab</t>
+  </si>
+  <si>
+    <t>EN.520.491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  CAD Design of Digital VLSI Systems I (Juniors/Seniors)</t>
+  </si>
+  <si>
+    <t>EN.520.612</t>
+  </si>
+  <si>
+    <t>EN.520.637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Foundations of Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>EN.520.666</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Information Extraction</t>
+  </si>
+  <si>
+    <t>EN.520.702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Current Topics in Language and Speech Processing</t>
+  </si>
+  <si>
+    <t>EN.520.807</t>
+  </si>
+  <si>
+    <t>EN.525.768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Wireless Networks</t>
+  </si>
+  <si>
+    <t>EN.500.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gateway Computing: JAVA</t>
+  </si>
+  <si>
+    <t>EN.500.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bootcamp: Java</t>
+  </si>
+  <si>
+    <t>EN.500.133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bootcamp: Python</t>
+  </si>
+  <si>
+    <t>EN.500.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bootcamp: MATLAB</t>
+  </si>
+  <si>
+    <t>EN.500.308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Multidisciplinary Engineering Design I</t>
+  </si>
+  <si>
+    <t>EN.650.624</t>
+  </si>
+  <si>
+    <t>EN.650.631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Ethical Hacking</t>
+  </si>
+  <si>
+    <t>EN.650.654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Intrusion Detection</t>
+  </si>
+  <si>
+    <t>EN.650.656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Computer Forensics</t>
+  </si>
+  <si>
+    <t>EN.650.660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Software Vulnerability Analysis</t>
+  </si>
+  <si>
+    <t>EN.650.663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Cloud Computing Security</t>
+  </si>
+  <si>
+    <t>EN.650.724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Network Security</t>
+  </si>
+  <si>
+    <t>EN.650.757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Advanced Computer Forensics</t>
+  </si>
+  <si>
+    <t>EN.635.683</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  E-Business: Models, Architecture, Technologies, and Infrastructure</t>
+  </si>
+  <si>
+    <t>AS.110.721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Topics In Homotopy Type Theory</t>
+  </si>
+  <si>
+    <t>AS.110.722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Topics in Homotopy Theory</t>
+  </si>
+  <si>
+    <t>EN.530.707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Robot System Programming</t>
+  </si>
+  <si>
+    <t>AS.171.205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Introduction to Practical Data Science: Beautiful Data</t>
+  </si>
+  <si>
+    <t>EN.620.745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Seminar in Computational Sensing and Robotics</t>
+  </si>
+  <si>
+    <t>CSE 001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Breadth of Computing </t>
+  </si>
+  <si>
+    <t>CSE 003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Programming, Part A </t>
+  </si>
+  <si>
+    <t>CSE 004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Programming, Part B </t>
+  </si>
+  <si>
+    <t>CSE 007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Programming </t>
+  </si>
+  <si>
+    <t>CSE 012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Survey of Computer Science </t>
+  </si>
+  <si>
+    <t>CSE 017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming and Data Structures </t>
+  </si>
+  <si>
+    <t>CSE 042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Game Design </t>
+  </si>
+  <si>
+    <t>CSE 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Systems Software </t>
+  </si>
+  <si>
+    <t>CSE 127</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Survey of Artificial Intelligence </t>
+  </si>
+  <si>
+    <t>CSE 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technical Presentation </t>
+  </si>
+  <si>
+    <t>CSE 140</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Foundations of Discrete Structures and Algorithms </t>
+  </si>
+  <si>
+    <t>CSE 160</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Data Science </t>
+  </si>
+  <si>
+    <t>CSE 190</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Special Topics </t>
+  </si>
+  <si>
+    <t>CSE 202</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Organization and Architecture </t>
+  </si>
+  <si>
+    <t>CSE 216</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Engineering </t>
+  </si>
+  <si>
+    <t>CSE 241</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Systems and Applications </t>
+  </si>
+  <si>
+    <t>CSE 242</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blockchain Algorithms and Systems </t>
+  </si>
+  <si>
+    <t>CSE 252</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers, the Internet, and Society </t>
+  </si>
+  <si>
+    <t>CSE 261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Discrete Structures </t>
+  </si>
+  <si>
+    <t>CSE 262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming Languages </t>
+  </si>
+  <si>
+    <t>CSE 264</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Web Systems Programming </t>
+  </si>
+  <si>
+    <t>CSE 265</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System and Network Administration </t>
+  </si>
+  <si>
+    <t>CSE 271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming in C and the Unix Environment </t>
+  </si>
+  <si>
+    <t>CSE 280</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capstone Project I </t>
+  </si>
+  <si>
+    <t>CSE 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Apprentice Teaching </t>
+  </si>
+  <si>
+    <t>CSE 302</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compiler Design </t>
+  </si>
+  <si>
+    <t>CSE 303</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Operating System Design </t>
+  </si>
+  <si>
+    <t>CSE 307</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Structural Bioinformatics </t>
+  </si>
+  <si>
+    <t>CSE 308</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioinformatics: Issues and Algorithms </t>
+  </si>
+  <si>
+    <t>CSE 313</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Graphics </t>
+  </si>
+  <si>
+    <t>CSE 318</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to the Theory of Computation </t>
+  </si>
+  <si>
+    <t>CSE 319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Image Analysis and Graphics </t>
+  </si>
+  <si>
+    <t>CSE 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biomedical Image Computing and Modeling </t>
+  </si>
+  <si>
+    <t>CSE 325</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Natural Language Processing </t>
+  </si>
+  <si>
+    <t>CSE 326</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Machine Learning </t>
+  </si>
+  <si>
+    <t>CSE 327</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Artificial Intelligence Theory and Practice </t>
+  </si>
+  <si>
+    <t>CSE 331</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> User Interface Systems and Techniques </t>
+  </si>
+  <si>
+    <t>CSE 334</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software System Security </t>
+  </si>
+  <si>
+    <t>CSE 335</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topics on Intelligent Decision Support Systems </t>
+  </si>
+  <si>
+    <t>CSE 336</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Embedded Systems </t>
+  </si>
+  <si>
+    <t>CSE 337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reinforcement Learning </t>
+  </si>
+  <si>
+    <t>CSE 340</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Design and Analysis of Algorithms </t>
+  </si>
+  <si>
+    <t>CSE 341</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Database Systems, Algorithms, and Applications </t>
+  </si>
+  <si>
+    <t>CSE 342</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Internetworking </t>
+  </si>
+  <si>
+    <t>CSE 343</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Network Security </t>
+  </si>
+  <si>
+    <t>CSE 345</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WWW Search Engines </t>
+  </si>
+  <si>
+    <t>CSE 347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Mining </t>
+  </si>
+  <si>
+    <t>CSE 348</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AI Game Programming </t>
+  </si>
+  <si>
+    <t>CSE 350</t>
+  </si>
+  <si>
+    <t>CSE 360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Mobile Robotics </t>
+  </si>
+  <si>
+    <t>CSE 363</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Network Systems Design </t>
+  </si>
+  <si>
+    <t>CSE 371</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Mobile Computing </t>
+  </si>
+  <si>
+    <t>CSE 375</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Practice of Parallel Computing </t>
+  </si>
+  <si>
+    <t>CSE 379</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senior Project </t>
+  </si>
+  <si>
+    <t>CSE 389</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honors Project </t>
+  </si>
+  <si>
+    <t>CSE 392</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independent Study </t>
+  </si>
+  <si>
+    <t>CSE 401</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Computer Architecture </t>
+  </si>
+  <si>
+    <t>CSE 403</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Operating Systems </t>
+  </si>
+  <si>
+    <t>CSE 404</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computer Networks </t>
+  </si>
+  <si>
+    <t>CSE 405</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Programming Languages </t>
+  </si>
+  <si>
+    <t>CSE 406</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research Methods </t>
+  </si>
+  <si>
+    <t>CSE 407</t>
+  </si>
+  <si>
+    <t>CSE 408</t>
+  </si>
+  <si>
+    <t>CSE 409</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Theory of Computation </t>
+  </si>
+  <si>
+    <t>CSE 411</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Programming Techniques </t>
+  </si>
+  <si>
+    <t>CSE 418</t>
+  </si>
+  <si>
+    <t>CSE 419</t>
+  </si>
+  <si>
+    <t>CSE 420</t>
+  </si>
+  <si>
+    <t>CSE 424</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Communication Networks </t>
+  </si>
+  <si>
+    <t>CSE 425</t>
+  </si>
+  <si>
+    <t>CSE 426</t>
+  </si>
+  <si>
+    <t>CSE 428</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Semantic Web Topics </t>
+  </si>
+  <si>
+    <t>CSE 431</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intelligent Agents </t>
+  </si>
+  <si>
+    <t>CSE 432</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Object-Oriented Software Engineering </t>
+  </si>
+  <si>
+    <t>CSE 434</t>
+  </si>
+  <si>
+    <t>CSE 435</t>
+  </si>
+  <si>
+    <t>CSE 437</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reinforcement Learning and Markov Decision Precesses </t>
+  </si>
+  <si>
+    <t>CSE 440</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Advanced Algorithms </t>
+  </si>
+  <si>
+    <t>CSE 443</t>
+  </si>
+  <si>
+    <t>CSE 445</t>
+  </si>
+  <si>
+    <t>CSE 447</t>
+  </si>
+  <si>
+    <t>CSE 450</t>
+  </si>
+  <si>
+    <t>CSE 460</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mobile Robotics </t>
+  </si>
+  <si>
+    <t>CSE 471</t>
+  </si>
+  <si>
+    <t>CSE 475</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles and Practice of Parallel Computing </t>
+  </si>
+  <si>
+    <t>CSE 490</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thesis </t>
+  </si>
+  <si>
+    <t>CSE 491</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Research Seminar </t>
+  </si>
+  <si>
+    <t>CSE 492</t>
+  </si>
+  <si>
+    <t>CSE 499</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dissertation </t>
+  </si>
+  <si>
+    <t>COSC 1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Computer Science</t>
+  </si>
+  <si>
+    <t>COSC 1010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Software Development</t>
+  </si>
+  <si>
+    <t>COSC 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Object-Oriented Software Design</t>
+  </si>
+  <si>
+    <t>COSC 1360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Cybersecurity</t>
+  </si>
+  <si>
+    <t>COSC 1820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers, Ethics and Society</t>
+  </si>
+  <si>
+    <t>COSC 2100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Structures</t>
+  </si>
+  <si>
+    <t>COSC 2200</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hardware Systems</t>
+  </si>
+  <si>
+    <t>COSC 3090</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bioinformatics Algorithms</t>
+  </si>
+  <si>
+    <t>COSC 3100</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Algorithms</t>
+  </si>
+  <si>
+    <t>COSC 3250</t>
+  </si>
+  <si>
+    <t>COSC 3410</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming Languages</t>
+  </si>
+  <si>
+    <t>COSC 3550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming Computer Games</t>
+  </si>
+  <si>
+    <t>COSC 3570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Introduction to Data Science</t>
+  </si>
+  <si>
+    <t>COSC 3810</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software Design and Analysis</t>
+  </si>
+  <si>
+    <t>COSC 3870</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pedagogy of Computer Science</t>
+  </si>
+  <si>
+    <t>COSC 3977</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Problem Solving - Programming</t>
+  </si>
+  <si>
+    <t>COSC 4010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teaching Computer Science</t>
+  </si>
+  <si>
+    <t>COSC 4290</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Real-Time and Embedded Systems</t>
+  </si>
+  <si>
+    <t>COSC 4300</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Network Design and Security</t>
+  </si>
+  <si>
+    <t>COSC 4360</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Software and System Security</t>
+  </si>
+  <si>
+    <t>COSC 4370</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Internet of Things (IoT)</t>
+  </si>
+  <si>
+    <t>COSC 4400</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compiler Construction</t>
+  </si>
+  <si>
+    <t>COSC 4500</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Visual Analytics</t>
+  </si>
+  <si>
+    <t>COSC 4600</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>COSC 4610</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Mining</t>
+  </si>
+  <si>
+    <t>COSC 4800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Database Systems</t>
+  </si>
+  <si>
+    <t>COSC 4860</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Component-Based Software Construction</t>
+  </si>
+  <si>
+    <t>COSC 4920</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Principles of Design</t>
+  </si>
+  <si>
+    <t>COSC 4931</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Topics in Computer Science</t>
+  </si>
+  <si>
+    <t>COSC 4953</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Undergraduate Seminar</t>
+  </si>
+  <si>
+    <t>COSC 4987</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Co-op Work Period</t>
+  </si>
+  <si>
+    <t>COSC 4988</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Co-op Grading Period</t>
+  </si>
+  <si>
+    <t>COSC 4995</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Independent Study in Computer Science</t>
+  </si>
+  <si>
+    <t>COSC 4998</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senior Design Project</t>
+  </si>
+  <si>
+    <t>COSC 4999</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Senior Thesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 102 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Science and Software Engineering
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 148 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 151 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computers, Computer Science, and Society
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 153 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to C / C ++ Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 163 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Computer Concepts and Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 174 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fundamentals of Programming and Problem Solving
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 177 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Independent Study
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Software Engineering
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 211 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Construction
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 212 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineering for User Interface and User Experience Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 220 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Professional Practice
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 243 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem Analysis Using Computer Tools
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 251 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Game Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 252 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Application Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 253 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Programming Languages
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 256 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Programming for the Life Sciences
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 262 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technology, Ethics, and Global Society
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 270 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Topics
+</t>
+  </si>
+  <si>
+    <t>CSE 270E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NodeJS (Winter Term Only)
+</t>
+  </si>
+  <si>
+    <t>CSE 270M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematics &amp; Computer Science
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 271 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Object-Oriented Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 273 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimization Modeling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 274 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Abstraction and Data Structures
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 277 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 278 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems I: Introduction to Systems Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 310 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undergraduate Seminar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 311 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Architecture and Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 320 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 321 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Quality Assurance and Testing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 322 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Requirements
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internship
+</t>
+  </si>
+  <si>
+    <t>CSE 340U</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undergraduate Summer Scholars Program
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 372 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stochastic Modeling
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 374 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms I
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 377 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 381 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Systems 2: OS, Concurrency, Virtualization, and Security
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 382 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile App Development
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 383 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Applications Programming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 385 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 386 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foundations of Computer Graphics and Games
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 389 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Game Design and Implementation
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Model-Driven Software Engineering
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 432 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 443 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">High Performance Computing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 448 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Design Project I
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 449 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senior Design Project II
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Services and Service Oriented Architecture
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 456 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioinformatic Principles
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 465 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparative Programming Languages
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 466 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bioinformatics Computing Skills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 467 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer and Network Security
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 470 </t>
+  </si>
+  <si>
+    <t>CSE 470a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Malicious Code Analysis
+</t>
+  </si>
+  <si>
+    <t>CSE 470g</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cloud Computing and Dev Ops
+</t>
+  </si>
+  <si>
+    <t>CSE 470K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applied Cryptography
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 473 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automata, Formal Languages, and Computability
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 474 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compiler Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 477 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special Problems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 484 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms II
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 485 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Database Systems
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 486 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Artificial Intelligence
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 488 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Image Processing &amp; Computer Vision
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 489 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Graphics and Game Engine Design
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSE 491 </t>
+  </si>
+  <si>
+    <t>Undergraduate Research</t>
   </si>
 </sst>
 </file>
@@ -2036,7 +4476,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2050,6 +4490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2355,16 +4796,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.7265625" customWidth="1"/>
-    <col min="2" max="2" width="55.08984375" customWidth="1"/>
+    <col min="2" max="2" width="103.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2409,10 +4850,47 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>547</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2421,6 +4899,551 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="68.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B40" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -2436,450 +5459,450 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B53" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B56" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2905,274 +5928,274 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -3196,10 +6219,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -3207,7 +6230,7 @@
         <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -3215,7 +6238,7 @@
         <v>125</v>
       </c>
       <c r="B3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -3223,7 +6246,7 @@
         <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -3231,7 +6254,7 @@
         <v>150</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -3239,7 +6262,7 @@
         <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -3247,7 +6270,7 @@
         <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -3255,7 +6278,7 @@
         <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -3263,7 +6286,7 @@
         <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -3271,7 +6294,7 @@
         <v>265</v>
       </c>
       <c r="B10" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -3279,7 +6302,7 @@
         <v>295</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -3287,7 +6310,7 @@
         <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -3295,7 +6318,7 @@
         <v>336</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -3303,7 +6326,7 @@
         <v>342</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -3311,7 +6334,7 @@
         <v>354</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -3319,7 +6342,7 @@
         <v>361</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -3327,7 +6350,7 @@
         <v>376</v>
       </c>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -3335,7 +6358,7 @@
         <v>385</v>
       </c>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -3343,7 +6366,7 @@
         <v>392</v>
       </c>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -3351,7 +6374,7 @@
         <v>395</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -3359,7 +6382,7 @@
         <v>470</v>
       </c>
       <c r="B21" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -3367,7 +6390,7 @@
         <v>481</v>
       </c>
       <c r="B22" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -3375,7 +6398,7 @@
         <v>482</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -3383,7 +6406,7 @@
         <v>490</v>
       </c>
       <c r="B24" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -3391,7 +6414,7 @@
         <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -3399,7 +6422,7 @@
         <v>495</v>
       </c>
       <c r="B26" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -3453,402 +6476,402 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B6" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B13" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B25" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B42" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="B44" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="B47" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="B48" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3860,7 +6883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
@@ -3872,1002 +6895,4039 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B9" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="B10" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="B11" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B12" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="B16" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B17" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="B18" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="B21" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B22" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B24" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B25" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B26" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B27" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B28" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B29" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="B30" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B31" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="B33" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="B34" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="B35" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B36" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B38" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B40" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B41" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B43" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B44" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B47" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B48" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B49" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="B50" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="B51" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B52" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="B53" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="B54" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B55" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B58" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="B62" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B63" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="B64" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="B66" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="B67" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="B69" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="B73" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B75" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B76" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B77" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B78" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B79" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B80" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B81" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B83" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B84" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B87" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="B88" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="B89" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="B90" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="B91" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="B92" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B93" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B94" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B95" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="B97" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="B98" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="B99" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="B100" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="B102" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="B103" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="B104" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="B105" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="B106" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="B107" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="B108" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="B109" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="B110" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="B111" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="B112" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="B113" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="B114" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="B115" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="B116" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="B117" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="B118" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="B119" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="B120" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="B121" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="B122" t="s">
-        <v>539</v>
+        <v>550</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="B123" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="B124" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="B125" t="s">
-        <v>545</v>
+        <v>556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B247"/>
+  <sheetViews>
+    <sheetView topLeftCell="A229" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="56.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B7" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B8" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>575</v>
+      </c>
+      <c r="B11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B12" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>581</v>
+      </c>
+      <c r="B14" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>583</v>
+      </c>
+      <c r="B15" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B18" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>591</v>
+      </c>
+      <c r="B19" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>593</v>
+      </c>
+      <c r="B20" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>597</v>
+      </c>
+      <c r="B22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>599</v>
+      </c>
+      <c r="B23" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>601</v>
+      </c>
+      <c r="B24" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>603</v>
+      </c>
+      <c r="B25" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>605</v>
+      </c>
+      <c r="B26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>607</v>
+      </c>
+      <c r="B27" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>609</v>
+      </c>
+      <c r="B28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>610</v>
+      </c>
+      <c r="B29" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>612</v>
+      </c>
+      <c r="B30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>613</v>
+      </c>
+      <c r="B31" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>615</v>
+      </c>
+      <c r="B32" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>616</v>
+      </c>
+      <c r="B33" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>620</v>
+      </c>
+      <c r="B35" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>622</v>
+      </c>
+      <c r="B36" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>624</v>
+      </c>
+      <c r="B37" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>626</v>
+      </c>
+      <c r="B38" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>628</v>
+      </c>
+      <c r="B39" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>630</v>
+      </c>
+      <c r="B40" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>632</v>
+      </c>
+      <c r="B41" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>634</v>
+      </c>
+      <c r="B42" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>636</v>
+      </c>
+      <c r="B43" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>638</v>
+      </c>
+      <c r="B44" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>640</v>
+      </c>
+      <c r="B45" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>642</v>
+      </c>
+      <c r="B46" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>643</v>
+      </c>
+      <c r="B47" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>645</v>
+      </c>
+      <c r="B48" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>647</v>
+      </c>
+      <c r="B49" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>649</v>
+      </c>
+      <c r="B50" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>651</v>
+      </c>
+      <c r="B51" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>653</v>
+      </c>
+      <c r="B52" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>655</v>
+      </c>
+      <c r="B53" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>657</v>
+      </c>
+      <c r="B54" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>659</v>
+      </c>
+      <c r="B55" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>661</v>
+      </c>
+      <c r="B56" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>663</v>
+      </c>
+      <c r="B57" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>665</v>
+      </c>
+      <c r="B58" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>667</v>
+      </c>
+      <c r="B59" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>669</v>
+      </c>
+      <c r="B60" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>671</v>
+      </c>
+      <c r="B61" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>673</v>
+      </c>
+      <c r="B62" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>675</v>
+      </c>
+      <c r="B63" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>677</v>
+      </c>
+      <c r="B64" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>679</v>
+      </c>
+      <c r="B65" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>681</v>
+      </c>
+      <c r="B66" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>683</v>
+      </c>
+      <c r="B67" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>685</v>
+      </c>
+      <c r="B68" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>687</v>
+      </c>
+      <c r="B69" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>689</v>
+      </c>
+      <c r="B70" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>691</v>
+      </c>
+      <c r="B71" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>693</v>
+      </c>
+      <c r="B72" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>695</v>
+      </c>
+      <c r="B73" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>697</v>
+      </c>
+      <c r="B74" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>699</v>
+      </c>
+      <c r="B75" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>701</v>
+      </c>
+      <c r="B76" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>703</v>
+      </c>
+      <c r="B77" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>705</v>
+      </c>
+      <c r="B78" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>707</v>
+      </c>
+      <c r="B79" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>709</v>
+      </c>
+      <c r="B80" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>711</v>
+      </c>
+      <c r="B81" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>713</v>
+      </c>
+      <c r="B82" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>715</v>
+      </c>
+      <c r="B83" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>717</v>
+      </c>
+      <c r="B84" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>719</v>
+      </c>
+      <c r="B85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>720</v>
+      </c>
+      <c r="B86" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>722</v>
+      </c>
+      <c r="B87" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>723</v>
+      </c>
+      <c r="B88" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>724</v>
+      </c>
+      <c r="B89" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>725</v>
+      </c>
+      <c r="B90" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>726</v>
+      </c>
+      <c r="B91" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>727</v>
+      </c>
+      <c r="B92" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>728</v>
+      </c>
+      <c r="B93" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>729</v>
+      </c>
+      <c r="B94" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>731</v>
+      </c>
+      <c r="B95" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>732</v>
+      </c>
+      <c r="B96" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>733</v>
+      </c>
+      <c r="B97" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>734</v>
+      </c>
+      <c r="B98" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>735</v>
+      </c>
+      <c r="B99" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>736</v>
+      </c>
+      <c r="B100" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>737</v>
+      </c>
+      <c r="B101" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>738</v>
+      </c>
+      <c r="B102" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>740</v>
+      </c>
+      <c r="B103" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>741</v>
+      </c>
+      <c r="B104" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>742</v>
+      </c>
+      <c r="B105" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>743</v>
+      </c>
+      <c r="B106" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>744</v>
+      </c>
+      <c r="B107" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>745</v>
+      </c>
+      <c r="B108" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>746</v>
+      </c>
+      <c r="B109" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>747</v>
+      </c>
+      <c r="B110" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>748</v>
+      </c>
+      <c r="B111" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>749</v>
+      </c>
+      <c r="B112" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>750</v>
+      </c>
+      <c r="B113" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>751</v>
+      </c>
+      <c r="B114" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>752</v>
+      </c>
+      <c r="B115" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>753</v>
+      </c>
+      <c r="B116" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>754</v>
+      </c>
+      <c r="B117" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>755</v>
+      </c>
+      <c r="B118" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>756</v>
+      </c>
+      <c r="B119" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>757</v>
+      </c>
+      <c r="B120" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>758</v>
+      </c>
+      <c r="B121" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>759</v>
+      </c>
+      <c r="B122" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>760</v>
+      </c>
+      <c r="B123" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>761</v>
+      </c>
+      <c r="B124" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>762</v>
+      </c>
+      <c r="B125" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>763</v>
+      </c>
+      <c r="B126" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>764</v>
+      </c>
+      <c r="B127" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>765</v>
+      </c>
+      <c r="B128" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>766</v>
+      </c>
+      <c r="B129" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>767</v>
+      </c>
+      <c r="B130" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>768</v>
+      </c>
+      <c r="B131" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>769</v>
+      </c>
+      <c r="B132" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>770</v>
+      </c>
+      <c r="B133" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>771</v>
+      </c>
+      <c r="B134" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>772</v>
+      </c>
+      <c r="B135" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>774</v>
+      </c>
+      <c r="B136" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>775</v>
+      </c>
+      <c r="B137" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>776</v>
+      </c>
+      <c r="B138" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>777</v>
+      </c>
+      <c r="B139" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>779</v>
+      </c>
+      <c r="B140" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>781</v>
+      </c>
+      <c r="B141" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>783</v>
+      </c>
+      <c r="B142" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>785</v>
+      </c>
+      <c r="B143" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>787</v>
+      </c>
+      <c r="B144" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>789</v>
+      </c>
+      <c r="B145" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>791</v>
+      </c>
+      <c r="B146" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>793</v>
+      </c>
+      <c r="B147" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>795</v>
+      </c>
+      <c r="B148" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>797</v>
+      </c>
+      <c r="B149" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>799</v>
+      </c>
+      <c r="B150" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>801</v>
+      </c>
+      <c r="B151" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>803</v>
+      </c>
+      <c r="B152" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>805</v>
+      </c>
+      <c r="B153" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>807</v>
+      </c>
+      <c r="B154" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>809</v>
+      </c>
+      <c r="B155" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>811</v>
+      </c>
+      <c r="B156" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>813</v>
+      </c>
+      <c r="B157" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>815</v>
+      </c>
+      <c r="B158" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>817</v>
+      </c>
+      <c r="B159" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>819</v>
+      </c>
+      <c r="B160" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>821</v>
+      </c>
+      <c r="B161" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>823</v>
+      </c>
+      <c r="B162" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>825</v>
+      </c>
+      <c r="B163" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>827</v>
+      </c>
+      <c r="B164" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>829</v>
+      </c>
+      <c r="B165" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>831</v>
+      </c>
+      <c r="B166" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>833</v>
+      </c>
+      <c r="B167" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>835</v>
+      </c>
+      <c r="B168" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>837</v>
+      </c>
+      <c r="B169" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>839</v>
+      </c>
+      <c r="B170" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>841</v>
+      </c>
+      <c r="B171" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>843</v>
+      </c>
+      <c r="B172" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>845</v>
+      </c>
+      <c r="B173" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>847</v>
+      </c>
+      <c r="B174" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>849</v>
+      </c>
+      <c r="B175" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>851</v>
+      </c>
+      <c r="B176" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>853</v>
+      </c>
+      <c r="B177" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>855</v>
+      </c>
+      <c r="B178" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>857</v>
+      </c>
+      <c r="B179" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>859</v>
+      </c>
+      <c r="B180" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>861</v>
+      </c>
+      <c r="B181" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>863</v>
+      </c>
+      <c r="B182" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>865</v>
+      </c>
+      <c r="B183" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>867</v>
+      </c>
+      <c r="B184" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>869</v>
+      </c>
+      <c r="B185" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>870</v>
+      </c>
+      <c r="B186" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>872</v>
+      </c>
+      <c r="B187" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>874</v>
+      </c>
+      <c r="B188" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>876</v>
+      </c>
+      <c r="B189" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>877</v>
+      </c>
+      <c r="B190" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>878</v>
+      </c>
+      <c r="B191" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>880</v>
+      </c>
+      <c r="B192" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>882</v>
+      </c>
+      <c r="B193" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>884</v>
+      </c>
+      <c r="B194" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>886</v>
+      </c>
+      <c r="B195" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>888</v>
+      </c>
+      <c r="B196" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>890</v>
+      </c>
+      <c r="B197" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>892</v>
+      </c>
+      <c r="B198" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>893</v>
+      </c>
+      <c r="B199" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>895</v>
+      </c>
+      <c r="B200" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>897</v>
+      </c>
+      <c r="B201" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>899</v>
+      </c>
+      <c r="B202" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>901</v>
+      </c>
+      <c r="B203" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>903</v>
+      </c>
+      <c r="B204" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>905</v>
+      </c>
+      <c r="B205" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>906</v>
+      </c>
+      <c r="B206" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>908</v>
+      </c>
+      <c r="B207" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>910</v>
+      </c>
+      <c r="B208" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>912</v>
+      </c>
+      <c r="B209" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>914</v>
+      </c>
+      <c r="B210" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>916</v>
+      </c>
+      <c r="B211" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>918</v>
+      </c>
+      <c r="B212" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>920</v>
+      </c>
+      <c r="B213" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>922</v>
+      </c>
+      <c r="B214" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>924</v>
+      </c>
+      <c r="B215" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>926</v>
+      </c>
+      <c r="B216" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>928</v>
+      </c>
+      <c r="B217" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>930</v>
+      </c>
+      <c r="B218" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>932</v>
+      </c>
+      <c r="B219" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>934</v>
+      </c>
+      <c r="B220" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>936</v>
+      </c>
+      <c r="B221" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>938</v>
+      </c>
+      <c r="B222" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>940</v>
+      </c>
+      <c r="B223" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>941</v>
+      </c>
+      <c r="B224" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>943</v>
+      </c>
+      <c r="B225" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>945</v>
+      </c>
+      <c r="B226" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>947</v>
+      </c>
+      <c r="B227" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>948</v>
+      </c>
+      <c r="B228" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>950</v>
+      </c>
+      <c r="B229" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>952</v>
+      </c>
+      <c r="B230" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>954</v>
+      </c>
+      <c r="B231" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>956</v>
+      </c>
+      <c r="B232" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>958</v>
+      </c>
+      <c r="B233" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>960</v>
+      </c>
+      <c r="B234" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>961</v>
+      </c>
+      <c r="B235" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>963</v>
+      </c>
+      <c r="B236" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>965</v>
+      </c>
+      <c r="B237" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>967</v>
+      </c>
+      <c r="B238" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>969</v>
+      </c>
+      <c r="B239" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>971</v>
+      </c>
+      <c r="B240" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>973</v>
+      </c>
+      <c r="B241" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>975</v>
+      </c>
+      <c r="B242" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>977</v>
+      </c>
+      <c r="B243" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>979</v>
+      </c>
+      <c r="B244" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>981</v>
+      </c>
+      <c r="B245" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>983</v>
+      </c>
+      <c r="B246" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>985</v>
+      </c>
+      <c r="B247" t="s">
+        <v>986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B90"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="2" max="2" width="45.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>987</v>
+      </c>
+      <c r="B2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>989</v>
+      </c>
+      <c r="B3" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B4" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>993</v>
+      </c>
+      <c r="B5" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>995</v>
+      </c>
+      <c r="B6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>997</v>
+      </c>
+      <c r="B7" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>999</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.26953125" customWidth="1"/>
+    <col min="2" max="2" width="46.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1217</v>
       </c>
     </row>
   </sheetData>
